--- a/movimentacaoportuaria2020_2023.xlsx
+++ b/movimentacaoportuaria2020_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darlianecunha/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8A1686-D586-6543-B7E7-6F1091FE1A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6EFAF8-4F26-904D-9F57-50D113D3A327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="740" windowWidth="24000" windowHeight="13560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="2" r:id="rId1"/>
@@ -685,7 +685,7 @@
     <t>Porto</t>
   </si>
   <si>
-    <t>Carga movimentada</t>
+    <t>carga movimentada</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:B181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2506,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20523C0E-C9C7-0140-A481-BFD8D66D016D}">
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4142,7 +4142,7 @@
   <dimension ref="A1:B202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5776,8 +5776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/movimentacaoportuaria2020_2023.xlsx
+++ b/movimentacaoportuaria2020_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darlianecunha/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6EFAF8-4F26-904D-9F57-50D113D3A327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16A4BF6-BFDE-CE48-9B6D-98C4DD30F750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="740" windowWidth="24000" windowHeight="13560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="740" windowWidth="24000" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="2" r:id="rId1"/>
@@ -685,7 +685,7 @@
     <t>Porto</t>
   </si>
   <si>
-    <t>carga movimentada</t>
+    <t>cargamovimentada</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D975CED8-E566-894E-9ADF-2B9158A7EDC0}">
   <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -5776,7 +5776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/movimentacaoportuaria2020_2023.xlsx
+++ b/movimentacaoportuaria2020_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darlianecunha/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16A4BF6-BFDE-CE48-9B6D-98C4DD30F750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62023A88-7865-0C40-8259-F2CAD7556A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="740" windowWidth="24000" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="740" windowWidth="24000" windowHeight="13560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="2" r:id="rId1"/>
@@ -685,7 +685,7 @@
     <t>Porto</t>
   </si>
   <si>
-    <t>cargamovimentada</t>
+    <t>carga</t>
   </si>
 </sst>
 </file>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D975CED8-E566-894E-9ADF-2B9158A7EDC0}">
   <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2507,7 +2507,7 @@
   <dimension ref="A1:B202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4142,7 +4142,7 @@
   <dimension ref="A1:B202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5776,8 +5776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
